--- a/results/I3_N5_M2_T15_C100_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2837.164576415863</v>
+        <v>859.2572574679346</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.30930617577759</v>
+        <v>19.25725746793464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.26444728076656</v>
+        <v>4.805305943481867</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.989717520845969</v>
+        <v>4.805305943481867</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2091.040000000006</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>730.0899999999999</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -653,42 +653,9 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -755,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -962,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.16307414718501</v>
+        <v>11.16307414718502</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.122498527679113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.571119165100081</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.837257427557379</v>
+        <v>1.224115997544416</v>
       </c>
     </row>
     <row r="8">
@@ -1010,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>14.79834375740628</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1023,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1037,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1051,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1079,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1093,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,127 +1107,15 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>136.605</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>147.39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>149.995</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>145.9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>256.8600000000006</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>259.2650000000006</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>262.5950000000006</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>273.0900000000006</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>267.1100000000006</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>145.4599999999998</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>137.2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>145.8799999999998</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>147.8799999999998</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>144.4799999999998</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999979</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>256.8600000000006</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>259.2650000000006</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>262.5950000000006</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>273.0900000000006</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>267.1100000000006</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>136.605</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>147.39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>149.995</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>145.9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>146.71</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>156.8600000000006</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>159.2650000000006</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>162.5950000000006</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>173.0900000000006</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>167.1100000000006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>36.60500000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>47.38999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>45.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>46.71000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2040,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,7 +2090,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2246,7 +2101,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2257,7 +2112,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2268,7 +2123,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2279,7 +2134,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2290,7 +2145,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2301,100 +2156,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
